--- a/team_specific_matrix/Park (AZ)_A.xlsx
+++ b/team_specific_matrix/Park (AZ)_A.xlsx
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.4067796610169492</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
